--- a/torch_lyuan/exp.xlsx
+++ b/torch_lyuan/exp.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzh/Nutstore Files/Server-Code/speech-to-text-wavenet/torch_lyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7303E33E-44E1-3647-9857-B2081279695F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE8D86-7F0D-5B44-B814-6FD9AC8C70F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D52FFDAD-841F-6B44-B999-A787343D0BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$6:$K$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -105,6 +112,876 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98129999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C82-AD43-B1FC-78E0500E2FEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="658332112"/>
+        <c:axId val="658333744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="658332112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658333744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658333744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658332112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3ED73F-5546-D546-A708-CACB6AAA89C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,7 +1284,7 @@
   <dimension ref="A3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -436,6 +1313,27 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -510,5 +1408,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/torch_lyuan/exp.xlsx
+++ b/torch_lyuan/exp.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzh/Nutstore Files/Server-Code/speech-to-text-wavenet/torch_lyuan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE8D86-7F0D-5B44-B814-6FD9AC8C70F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CA269-DC3B-2140-BC69-AEA4389CD4C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D52FFDAD-841F-6B44-B999-A787343D0BB7}"/>
+    <workbookView minimized="1" xWindow="280" yWindow="460" windowWidth="27820" windowHeight="17040" xr2:uid="{D52FFDAD-841F-6B44-B999-A787343D0BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$6:$K$6</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6:$K$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$6:$K$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$6:$K$6</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$L$24:$L$29</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$M$24:$M$29</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$N$24:$N$29</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$O$24:$O$29</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>COO_8_8_48</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +49,34 @@
   </si>
   <si>
     <t>val_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.33X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COO+ Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Pruning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,6 +371,7 @@
         <c:axId val="658333744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -435,7 +466,713 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Val</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0068600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0674699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3768800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0061500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0599799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3447800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99695999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3407800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96396999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96923000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0094700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COO+ Pattern</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96821000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98604000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0257099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple Pruning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97291000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0100499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0B9C-E74D-8253-287A18384AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="687579616"/>
+        <c:axId val="687807040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687579616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687807040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687807040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687579616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -943,6 +1680,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -976,6 +2216,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>375227</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>790864</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218EA3A3-2FC2-B840-8895-A248D31CD0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1281,15 +2557,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B79845-13D7-1940-855B-DE38A018BBDD}">
-  <dimension ref="A3:K6"/>
+  <dimension ref="A3:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
@@ -1403,6 +2681,104 @@
       </c>
       <c r="K6">
         <v>0.98129999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="12:15">
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="12:15">
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>1.0068600000000001</v>
+      </c>
+      <c r="N24">
+        <v>1.0674699999999999</v>
+      </c>
+      <c r="O24">
+        <v>1.3768800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="12:15">
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>1.0061500000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.0599799999999999</v>
+      </c>
+      <c r="O25">
+        <v>1.3447800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="12:15">
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0.99695999999999996</v>
+      </c>
+      <c r="N26">
+        <v>1.0725</v>
+      </c>
+      <c r="O26">
+        <v>1.3407800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="12:15">
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>0.96396999999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.96923000000000004</v>
+      </c>
+      <c r="O27">
+        <v>1.0094700000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="12:15">
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>0.96821000000000002</v>
+      </c>
+      <c r="N28">
+        <v>0.98604000000000003</v>
+      </c>
+      <c r="O28">
+        <v>1.0257099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="12:15">
+      <c r="L29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>0.97291000000000005</v>
+      </c>
+      <c r="N29">
+        <v>1.0100499999999999</v>
+      </c>
+      <c r="O29">
+        <v>1.12113</v>
       </c>
     </row>
   </sheetData>
